--- a/data/trans_dic/P23_DUKE_AF_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_DUKE_AF_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe apoyo social afectivo bajo</t>
+          <t>Población que recibe apoyo social afectivo bajo (tasa de respuesta: 96,08%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>66,56%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>56,96%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>62,54%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>63,28%</t>
+          <t>70,95%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>59,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>63,19%</t>
+          <t>57,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>55,04%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>56,95%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>63,23%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>62,44%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>57,24%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>58,36%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>63,16%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,53; 39,59</t>
+          <t>56,84; 76,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,64; 29,56</t>
+          <t>48,46; 66,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,16; 29,61</t>
+          <t>55,13; 69,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>56,24; 69,1</t>
+          <t>60,92; 83,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,56; 20,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,37; 19,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,96; 35,95</t>
+          <t>50,96; 67,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>56,11; 69,05</t>
+          <t>50,75; 63,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,35; 26,78</t>
+          <t>49,72; 60,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,57; 21,85</t>
+          <t>48,01; 65,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,62; 28,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>57,92; 67,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>55,32; 69,0</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>51,75; 62,45</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>54,29; 63,01</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>56,4; 71,41</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>66,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>62,47%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>65,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>71,5%</t>
+          <t>69,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>66,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>68,15%</t>
+          <t>65,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>66,8%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>62,9%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>69,97%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>66,58%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>64,3%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>66,15%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>66,04%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,42; 25,89</t>
+          <t>59,38; 72,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,96; 22,43</t>
+          <t>57,53; 67,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,85; 26,67</t>
+          <t>60,96; 69,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>66,89; 75,56</t>
+          <t>63,49; 74,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,62; 27,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,77; 22,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,08; 23,44</t>
+          <t>61,23; 71,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>63,75; 72,28</t>
+          <t>60,8; 70,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,1; 25,37</t>
+          <t>62,85; 70,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,53; 21,52</t>
+          <t>56,75; 67,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,88; 23,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>67,0; 73,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>61,83; 70,64</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>60,77; 67,97</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>62,99; 69,01</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>61,46; 70,01</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>67,17%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>68,54%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>66,82%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>68,65%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>71,21%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>67,59%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>69,49%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>72,93%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>69,34%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
           <t>68,03%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>16,33%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>15,79%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>20,46%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>70,14%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>17,93%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>14,23%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>18,5%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>69,14%</t>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>68,21%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>70,85%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,91; 25,29</t>
+          <t>59,79; 73,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,02; 16,84</t>
+          <t>62,67; 73,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,95; 21,44</t>
+          <t>61,91; 71,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>58,05; 75,16</t>
+          <t>62,8; 74,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,98; 20,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,97; 19,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,29; 23,94</t>
+          <t>65,35; 76,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>63,65; 75,99</t>
+          <t>62,89; 72,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,09; 21,46</t>
+          <t>65,31; 73,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,92; 17,16</t>
+          <t>68,61; 77,57</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,85; 20,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>63,47; 74,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>65,06; 73,22</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>64,7; 71,6</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>65,12; 71,26</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>66,93; 74,47</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>63,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>58,73%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>68,55%</t>
+          <t>66,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>59,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>66,96%</t>
+          <t>59,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>66,09%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>67,75%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>61,89%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>59,31%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>66,06%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,71; 24,64</t>
+          <t>58,4; 69,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,23; 19,37</t>
+          <t>51,72; 65,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,91; 22,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>64,83; 71,77</t>
+          <t>59,28; 71,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,12; 21,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,65; 19,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,97; 24,98</t>
+          <t>55,62; 64,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>63,93; 70,28</t>
+          <t>54,23; 65,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,22; 22,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,53; 18,78</t>
+          <t>60,33; 71,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,96; 22,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>65,37; 69,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>58,25; 65,09</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>54,41; 63,56</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>61,62; 70,24</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>65,61%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>62,36%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>65,35%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>68,35%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>64,13%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>63,68%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>64,9%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>65,43%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>64,84%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>63,05%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>65,12%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>66,86%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>62,11; 68,9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>59,27; 65,64</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>62,38; 68,42</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>64,88; 71,37</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>61,26; 66,52</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>61,15; 66,05</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>62,28; 67,31</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>62,27; 68,38</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>62,56; 66,89</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>61,18; 65,11</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>63,21; 67,14</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>64,54; 69,13</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe apoyo social afectivo bajo (tasa de respuesta: 96,08%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>193889</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>224274</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>393785</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>288044</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>217271</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>329576</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>436472</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>289715</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>411160</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>553850</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>830256</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>577758</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>165573; 223193</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>190827; 261028</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>347147; 437336</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>247359; 339221</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>187155; 248726</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>291183; 366485</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>394302; 479703</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>244225; 331843</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>364274; 454378</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>500712; 604254</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>772421; 896394</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>515908; 653193</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>447.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>436.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>614.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>810.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>451.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>585337</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>669830</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>976965</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>682382</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>609114</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>762182</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>954777</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>659275</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1194452</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1432011</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1931742</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1341657</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>522054; 638965</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>616773; 728399</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>908927; 1042861</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>624397; 737113</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>560170; 655979</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>702306; 811545</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>898336; 1010814</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>594759; 710588</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1109309; 1267393</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1353503; 1513900</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1839654; 2015266</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1248511; 1422207</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>395.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>359.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>519.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>688.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>441.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>420072</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>535957</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>688278</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>548140</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>516661</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>600279</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>774848</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>618618</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>936732</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1136236</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1463126</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1166758</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>373904; 457999</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>490020; 574081</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>637679; 736301</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>501468; 594838</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>474106; 553734</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>558544; 640169</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>728256; 815200</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>581907; 657979</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>878912; 989097</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1080482; 1195839</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1396877; 1528553</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1102214; 1226384</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>552.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>356.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>426.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>821481</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>457626</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>656641</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>768320</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>414413</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>598904</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1589802</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>872039</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1255545</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>750037; 886150</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>402973; 507152</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>589497; 713438</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>714420; 826058</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>374808; 451169</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>546688; 647284</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1496342; 1672051</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>799927; 934565</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1171160; 1335010</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>687.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>742.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>808.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>665.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>804.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>984.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1033.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>817.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1491.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1726.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1841.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>1482.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2020779</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1887687</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2059027</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2175207</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2111367</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2106451</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2166097</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2166510</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>4132146</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>3994137</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>4225124</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>4341718</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1913097; 2122262</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1793987; 1986926</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1965510; 2155701</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2064772; 2271221</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2016791; 2189827</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2022835; 2184935</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2078727; 2246404</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2061931; 2264111</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>3986237; 4262614</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>3875699; 4124811</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>4100892; 4356042</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>4191181; 4488919</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
